--- a/docs/quantity-kinds_source_table.xlsx
+++ b/docs/quantity-kinds_source_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\IFC\IFC5-development-Artur-fork\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5067CF3A-C53C-466A-85CF-59E9EEC4DF63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CBE4836-2801-4BBB-B1B1-91860E8EF879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" xr2:uid="{F2F9FD1C-1B19-4A11-8AA8-A1698AD03217}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="16680" xr2:uid="{F2F9FD1C-1B19-4A11-8AA8-A1698AD03217}"/>
   </bookViews>
   <sheets>
     <sheet name="quantity-kinds" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="628">
   <si>
     <t>Name</t>
   </si>
@@ -927,9 +927,6 @@
   </si>
   <si>
     <t>s</t>
-  </si>
-  <si>
-    <t>Despite difference between Power/Pressure and Levels, merge with Sound Power Level</t>
   </si>
   <si>
     <t>No need for dedicated measure.</t>
@@ -2303,6 +2300,18 @@
   </si>
   <si>
     <t>❔</t>
+  </si>
+  <si>
+    <t>DECIDE - One at the source (power), one at a distance from it (exposure)</t>
+  </si>
+  <si>
+    <t>SoundPowerLevel</t>
+  </si>
+  <si>
+    <t>SoundPressure</t>
+  </si>
+  <si>
+    <t>SoundPressureLevel</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2394,6 +2403,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -2420,7 +2435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2448,6 +2463,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2976,8 +2992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30A8B649-FDAA-4B94-B2B7-00979082356E}">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="D56" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q84" sqref="Q84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3000,37 +3016,37 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
+        <v>618</v>
+      </c>
+      <c r="F1" t="s">
         <v>619</v>
       </c>
-      <c r="F1" t="s">
-        <v>620</v>
-      </c>
       <c r="G1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
       <c r="I1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J1" t="s">
+        <v>352</v>
+      </c>
+      <c r="K1" t="s">
         <v>353</v>
-      </c>
-      <c r="K1" t="s">
-        <v>354</v>
       </c>
       <c r="L1" t="s">
         <v>3</v>
@@ -3045,7 +3061,7 @@
         <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="Q1" t="s">
         <v>294</v>
@@ -3059,22 +3075,22 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>33</v>
@@ -3084,7 +3100,7 @@
         <v>✔️</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>11</v>
@@ -3102,7 +3118,7 @@
         <v>1</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -3110,25 +3126,25 @@
         <v>266</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>267</v>
@@ -3138,7 +3154,7 @@
         <v>✔️</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>11</v>
@@ -3156,7 +3172,7 @@
         <v>1</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3167,22 +3183,22 @@
         <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>94</v>
@@ -3192,7 +3208,7 @@
         <v>✔️</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>11</v>
@@ -3225,13 +3241,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>296</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>273</v>
@@ -3244,7 +3260,7 @@
         <v>✔️</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -3277,13 +3293,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>66</v>
@@ -3296,7 +3312,7 @@
         <v>✔️</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>11</v>
@@ -3329,16 +3345,16 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>30</v>
@@ -3348,7 +3364,7 @@
         <v>✔️</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -3381,13 +3397,13 @@
         <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>48</v>
@@ -3400,7 +3416,7 @@
         <v>✔️</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>11</v>
@@ -3427,19 +3443,19 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>26</v>
@@ -3470,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -3481,19 +3497,19 @@
         <v>16</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>136</v>
@@ -3506,7 +3522,7 @@
         <v>✔️</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>11</v>
@@ -3533,22 +3549,22 @@
         <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>39</v>
@@ -3558,7 +3574,7 @@
         <v>✔️</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>11</v>
@@ -3576,7 +3592,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="12" spans="1:17" s="1" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
@@ -3593,16 +3609,16 @@
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>10</v>
@@ -3645,13 +3661,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>211</v>
@@ -3664,7 +3680,7 @@
         <v>✔️</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>11</v>
@@ -3691,22 +3707,22 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>36</v>
@@ -3716,7 +3732,7 @@
         <v>✔️</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>11</v>
@@ -3749,13 +3765,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>219</v>
@@ -3789,31 +3805,31 @@
     </row>
     <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>228</v>
+        <v>497</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>541</v>
+        <v>497</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>462</v>
+        <v>192</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>330</v>
+        <v>192</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>229</v>
+        <v>193</v>
       </c>
       <c r="J16" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -3823,7 +3839,7 @@
         <v>49</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>11</v>
@@ -3834,47 +3850,47 @@
       <c r="O16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="11">
         <v>2</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>622</v>
+        <v>498</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>498</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>192</v>
+        <v>475</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="J17" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
+        <v>✔️</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>49</v>
+        <v>354</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>11</v>
@@ -3891,19 +3907,17 @@
       <c r="P17" s="11">
         <v>2</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>499</v>
-      </c>
+      <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
@@ -3912,16 +3926,16 @@
         <v>476</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>511</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="J18" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -3942,20 +3956,20 @@
       <c r="O18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="3">
         <v>2</v>
       </c>
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
@@ -3964,23 +3978,23 @@
         <v>477</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>369</v>
+        <v>62</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>143</v>
+        <v>63</v>
       </c>
       <c r="J19" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>11</v>
@@ -3999,33 +4013,33 @@
       </c>
       <c r="Q19" s="3"/>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>543</v>
+        <v>499</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>478</v>
+      <c r="E20" s="8" t="s">
+        <v>492</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>62</v>
+        <v>374</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="J20" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -4049,42 +4063,44 @@
       <c r="P20" s="3">
         <v>2</v>
       </c>
-      <c r="Q20" s="3"/>
-    </row>
-    <row r="21" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="Q20" s="12" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>500</v>
+        <v>525</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>493</v>
+      <c r="E21" s="3" t="s">
+        <v>478</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>501</v>
+        <v>320</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>11</v>
@@ -4101,19 +4117,19 @@
       <c r="P21" s="3">
         <v>2</v>
       </c>
-      <c r="Q21" s="12" t="s">
-        <v>494</v>
+      <c r="Q21" s="3" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
@@ -4122,23 +4138,23 @@
         <v>479</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>321</v>
+        <v>506</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="J22" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>11</v>
@@ -4160,68 +4176,66 @@
       </c>
     </row>
     <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="J23" s="3" t="str">
+      <c r="F23" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="J23" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="3" t="s">
-        <v>623</v>
-      </c>
+      <c r="K23" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>566</v>
+        <v>577</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>9</v>
@@ -4230,23 +4244,23 @@
         <v>481</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>523</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>304</v>
+        <v>66</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="J24" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L24" s="5" t="s">
         <v>11</v>
@@ -4267,13 +4281,13 @@
     </row>
     <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>199</v>
+        <v>85</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>200</v>
+        <v>86</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>578</v>
+        <v>512</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>9</v>
@@ -4282,23 +4296,23 @@
         <v>482</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>524</v>
+        <v>316</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>201</v>
+        <v>88</v>
       </c>
       <c r="J25" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L25" s="5" t="s">
         <v>11</v>
@@ -4317,40 +4331,40 @@
       </c>
       <c r="Q25" s="5"/>
     </row>
-    <row r="26" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>86</v>
+        <v>150</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>151</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>317</v>
+        <v>579</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>87</v>
+        <v>357</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>88</v>
+        <v>152</v>
       </c>
       <c r="J26" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L26" s="5" t="s">
         <v>11</v>
@@ -4367,42 +4381,44 @@
       <c r="P26" s="5">
         <v>3</v>
       </c>
-      <c r="Q26" s="5"/>
-    </row>
-    <row r="27" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q26" s="15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>151</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>580</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>326</v>
+        <v>592</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>326</v>
+        <v>593</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>358</v>
+        <v>54</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="J27" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L27" s="5" t="s">
         <v>11</v>
@@ -4416,22 +4432,22 @@
       <c r="O27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="14">
         <v>3</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>416</v>
+        <v>391</v>
       </c>
     </row>
     <row r="28" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>9</v>
@@ -4440,23 +4456,23 @@
         <v>484</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>54</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="J28" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L28" s="5" t="s">
         <v>11</v>
@@ -4474,18 +4490,18 @@
         <v>3</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>9</v>
@@ -4494,23 +4510,23 @@
         <v>485</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>54</v>
+        <v>365</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="J29" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>✔️</v>
+        <v>❌</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L29" s="5" t="s">
         <v>11</v>
@@ -4524,22 +4540,20 @@
       <c r="O29" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P29" s="14">
+      <c r="P29" s="5">
         <v>3</v>
       </c>
-      <c r="Q29" s="15" t="s">
-        <v>392</v>
-      </c>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>600</v>
+        <v>112</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>9</v>
@@ -4548,23 +4562,23 @@
         <v>486</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>601</v>
+        <v>322</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>366</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="J30" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
+        <v>✔️</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L30" s="5" t="s">
         <v>11</v>
@@ -4581,17 +4595,19 @@
       <c r="P30" s="5">
         <v>3</v>
       </c>
-      <c r="Q30" s="5"/>
-    </row>
-    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q30" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>112</v>
+        <v>601</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>9</v>
@@ -4600,23 +4616,23 @@
         <v>487</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="J31" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L31" s="5" t="s">
         <v>11</v>
@@ -4630,19 +4646,19 @@
       <c r="O31" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P31" s="5">
+      <c r="P31" s="14">
         <v>3</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" s="2" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>602</v>
@@ -4654,23 +4670,23 @@
         <v>488</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>378</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="J32" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>✔️</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L32" s="5" t="s">
         <v>11</v>
@@ -4684,92 +4700,92 @@
       <c r="O32" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="5">
         <v>3</v>
       </c>
-      <c r="Q32" s="15" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>379</v>
+      <c r="Q32" s="5"/>
+    </row>
+    <row r="33" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="5" t="str">
-        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>✔️</v>
-      </c>
-      <c r="K33" s="5" t="s">
-        <v>356</v>
-      </c>
-      <c r="L33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P33" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="5"/>
-    </row>
-    <row r="34" spans="1:17" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="J33" s="3" t="str">
+        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="P33" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>56</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>57</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>544</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>158</v>
+        <v>58</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="J34" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -4788,145 +4804,140 @@
         <v>11</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P34" s="11">
+        <v>623</v>
+      </c>
+      <c r="P34" s="3">
         <v>2</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>427</v>
-      </c>
     </row>
     <row r="35" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="3" t="s">
+      <c r="A35" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J35" s="3" t="str">
+        <v>434</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="J35" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>624</v>
+      <c r="K35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>623</v>
       </c>
       <c r="P35" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>548</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="J36" s="5" t="str">
+      <c r="F36" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="J36" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
       </c>
-      <c r="K36" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="5" t="s">
-        <v>624</v>
+      <c r="K36" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>623</v>
       </c>
       <c r="P36" s="3">
         <v>2</v>
       </c>
-      <c r="Q36" s="5"/>
     </row>
     <row r="37" spans="1:17" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F37" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>509</v>
-      </c>
+      <c r="G37" s="4"/>
       <c r="H37" s="3" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="J37" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -4945,37 +4956,42 @@
         <v>11</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P37" s="3">
+        <v>623</v>
+      </c>
+      <c r="P37" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" s="3" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="Q37" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>439</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>387</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>130</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>549</v>
+      </c>
       <c r="H38" s="3" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="J38" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -4994,42 +5010,42 @@
         <v>11</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P38" s="11">
+        <v>623</v>
+      </c>
+      <c r="P38" s="3">
         <v>2</v>
       </c>
       <c r="Q38" s="3" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>338</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J39" s="3" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5048,152 +5064,150 @@
         <v>11</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P39" s="3">
         <v>2</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>134</v>
+        <v>253</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>135</v>
+        <v>254</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="G40" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="J40" s="3" t="str">
+        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="P40" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="J41" s="5" t="str">
+        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P41" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q41" s="5"/>
+    </row>
+    <row r="42" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="J40" s="3" t="str">
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="J42" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P40" s="3">
-        <v>2</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="J41" s="3" t="str">
-        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N41" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>624</v>
-      </c>
-      <c r="P41" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="J42" s="5" t="str">
-        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
-      </c>
       <c r="K42" s="5" t="s">
         <v>49</v>
       </c>
@@ -5207,40 +5221,40 @@
         <v>11</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P42" s="3">
-        <v>2</v>
+        <v>623</v>
+      </c>
+      <c r="P42" s="5">
+        <v>3</v>
       </c>
       <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>256</v>
+        <v>144</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>257</v>
+        <v>145</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>258</v>
+        <v>146</v>
       </c>
       <c r="J43" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5259,7 +5273,7 @@
         <v>11</v>
       </c>
       <c r="O43" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P43" s="5">
         <v>3</v>
@@ -5268,31 +5282,31 @@
     </row>
     <row r="44" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>145</v>
+        <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>304</v>
+        <v>364</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>146</v>
+        <v>107</v>
       </c>
       <c r="J44" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5311,22 +5325,24 @@
         <v>11</v>
       </c>
       <c r="O44" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P44" s="5">
         <v>3</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="3" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="45" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>106</v>
+        <v>240</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>9</v>
@@ -5335,16 +5351,16 @@
         <v>420</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="J45" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5363,24 +5379,24 @@
         <v>11</v>
       </c>
       <c r="O45" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P45" s="5">
         <v>3</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>622</v>
+      <c r="Q45" s="5" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>9</v>
@@ -5392,13 +5408,13 @@
         <v>346</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>363</v>
+        <v>244</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J46" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5417,21 +5433,19 @@
         <v>11</v>
       </c>
       <c r="O46" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P46" s="5">
         <v>3</v>
       </c>
-      <c r="Q46" s="5" t="s">
-        <v>419</v>
-      </c>
+      <c r="Q46" s="5"/>
     </row>
     <row r="47" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>561</v>
@@ -5446,13 +5460,13 @@
         <v>347</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J47" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5462,7 +5476,7 @@
         <v>49</v>
       </c>
       <c r="L47" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M47" s="5" t="s">
         <v>11</v>
@@ -5471,19 +5485,19 @@
         <v>11</v>
       </c>
       <c r="O47" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P47" s="5">
         <v>3</v>
       </c>
       <c r="Q47" s="5"/>
     </row>
-    <row r="48" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="5" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>562</v>
@@ -5491,20 +5505,20 @@
       <c r="D48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="5" t="s">
+      <c r="E48" s="8" t="s">
         <v>423</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>248</v>
+        <v>165</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="J48" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5514,7 +5528,7 @@
         <v>49</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M48" s="5" t="s">
         <v>11</v>
@@ -5523,19 +5537,18 @@
         <v>11</v>
       </c>
       <c r="O48" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P48" s="5">
         <v>3</v>
       </c>
-      <c r="Q48" s="5"/>
-    </row>
-    <row r="49" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="5" t="s">
-        <v>163</v>
+        <v>68</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>164</v>
+        <v>69</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>563</v>
@@ -5547,16 +5560,16 @@
         <v>424</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>342</v>
+        <v>393</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>165</v>
+        <v>70</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="J49" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5566,7 +5579,7 @@
         <v>49</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="M49" s="5" t="s">
         <v>11</v>
@@ -5575,18 +5588,19 @@
         <v>11</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P49" s="5">
+        <v>623</v>
+      </c>
+      <c r="P49" s="14">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" s="3" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="5" t="s">
-        <v>68</v>
+        <v>183</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>564</v>
@@ -5595,19 +5609,19 @@
         <v>9</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>394</v>
+        <v>343</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>70</v>
+        <v>185</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>71</v>
+        <v>186</v>
       </c>
       <c r="J50" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5617,7 +5631,7 @@
         <v>49</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M50" s="5" t="s">
         <v>11</v>
@@ -5626,40 +5640,39 @@
         <v>11</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P50" s="14">
+        <v>623</v>
+      </c>
+      <c r="P50" s="5">
         <v>3</v>
       </c>
-      <c r="Q50" s="5"/>
     </row>
     <row r="51" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" t="s">
         <v>428</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="J51" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5678,39 +5691,39 @@
         <v>11</v>
       </c>
       <c r="O51" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P51" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="5" t="s">
-        <v>159</v>
+        <v>271</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>160</v>
+        <v>272</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="8" t="s">
         <v>429</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>161</v>
+        <v>273</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>162</v>
+        <v>274</v>
       </c>
       <c r="J52" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5729,39 +5742,42 @@
         <v>11</v>
       </c>
       <c r="O52" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P52" s="5">
         <v>3</v>
       </c>
+      <c r="Q52" s="3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="53" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="5" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>352</v>
+        <v>392</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>274</v>
+        <v>208</v>
       </c>
       <c r="J53" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5780,42 +5796,39 @@
         <v>11</v>
       </c>
       <c r="O53" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P53" s="5">
         <v>3</v>
       </c>
-      <c r="Q53" s="3" t="s">
-        <v>431</v>
-      </c>
     </row>
     <row r="54" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>205</v>
+        <v>126</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>206</v>
+        <v>127</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>208</v>
+        <v>129</v>
       </c>
       <c r="J54" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5834,39 +5847,42 @@
         <v>11</v>
       </c>
       <c r="O54" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P54" s="5">
+        <v>623</v>
+      </c>
+      <c r="P54" s="14">
         <v>3</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="55" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>514</v>
+        <v>580</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J55" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5885,24 +5901,21 @@
         <v>11</v>
       </c>
       <c r="O55" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P55" s="14">
         <v>3</v>
       </c>
-      <c r="Q55" s="5" t="s">
-        <v>515</v>
-      </c>
     </row>
     <row r="56" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="5" t="s">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>581</v>
+        <v>180</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>586</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>9</v>
@@ -5911,16 +5924,16 @@
         <v>437</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>125</v>
+        <v>182</v>
       </c>
       <c r="J56" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5939,39 +5952,42 @@
         <v>11</v>
       </c>
       <c r="O56" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P56" s="14">
         <v>3</v>
       </c>
+      <c r="Q56" s="5" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="57" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="5" t="s">
-        <v>179</v>
+        <v>275</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>587</v>
+        <v>276</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>582</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>181</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>182</v>
+        <v>277</v>
       </c>
       <c r="J57" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -5990,42 +6006,39 @@
         <v>11</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P57" s="14">
         <v>3</v>
       </c>
-      <c r="Q57" s="5" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A58" s="5" t="s">
-        <v>275</v>
+        <v>213</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="J58" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6044,39 +6057,39 @@
         <v>11</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P58" s="14">
+        <v>623</v>
+      </c>
+      <c r="P58" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>214</v>
+        <v>279</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" t="s">
         <v>440</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>401</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>216</v>
+        <v>281</v>
       </c>
       <c r="J59" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6095,7 +6108,7 @@
         <v>11</v>
       </c>
       <c r="O59" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P59" s="5">
         <v>3</v>
@@ -6103,31 +6116,31 @@
     </row>
     <row r="60" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>278</v>
+        <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>279</v>
+        <v>119</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="8" t="s">
         <v>441</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>280</v>
+        <v>120</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>281</v>
+        <v>121</v>
       </c>
       <c r="J60" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6146,39 +6159,39 @@
         <v>11</v>
       </c>
       <c r="O60" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P60" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>399</v>
+        <v>311</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>591</v>
+        <v>534</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="J61" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6197,39 +6210,42 @@
         <v>11</v>
       </c>
       <c r="O61" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P61" s="5">
         <v>3</v>
       </c>
+      <c r="Q61" s="5" t="s">
+        <v>444</v>
+      </c>
     </row>
     <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>535</v>
+        <v>597</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J62" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6248,150 +6264,147 @@
         <v>11</v>
       </c>
       <c r="O62" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P62" s="5">
         <v>3</v>
       </c>
       <c r="Q62" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>171</v>
+        <v>222</v>
       </c>
       <c r="C63" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J63" s="5" t="str">
+        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P63" s="14">
+        <v>3</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="J63" s="5" t="str">
+      <c r="H64" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="J64" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N63" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O63" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P63" s="5">
+      <c r="K64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P64" s="5">
         <v>3</v>
       </c>
-      <c r="Q63" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>608</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>312</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="H64" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J64" s="5" t="str">
-        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
-      </c>
-      <c r="K64" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P64" s="14">
-        <v>3</v>
-      </c>
-      <c r="Q64" s="5" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" s="5" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>177</v>
+        <v>269</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>597</v>
+        <v>269</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E65" s="5" t="s">
+      <c r="E65" s="8" t="s">
         <v>446</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>395</v>
+        <v>350</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>598</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>364</v>
+        <v>211</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="J65" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6410,39 +6423,39 @@
         <v>11</v>
       </c>
       <c r="O65" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P65" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>269</v>
+        <v>174</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>269</v>
+        <v>605</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="J66" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6461,21 +6474,24 @@
         <v>11</v>
       </c>
       <c r="O66" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P66" s="5">
         <v>3</v>
       </c>
+      <c r="Q66" s="5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="67" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>9</v>
@@ -6484,16 +6500,16 @@
         <v>449</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="J67" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6512,24 +6528,24 @@
         <v>11</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P67" s="5">
         <v>3</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="68" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>210</v>
+        <v>283</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>9</v>
@@ -6538,16 +6554,16 @@
         <v>450</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>345</v>
+        <v>399</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>211</v>
+        <v>284</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>212</v>
+        <v>285</v>
       </c>
       <c r="J68" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6566,24 +6582,21 @@
         <v>11</v>
       </c>
       <c r="O68" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P68" s="5">
         <v>3</v>
       </c>
-      <c r="Q68" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>609</v>
+        <v>80</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>610</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>9</v>
@@ -6592,16 +6605,16 @@
         <v>451</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>400</v>
+        <v>334</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>284</v>
+        <v>359</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>285</v>
+        <v>81</v>
       </c>
       <c r="J69" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6620,7 +6633,7 @@
         <v>11</v>
       </c>
       <c r="O69" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P69" s="5">
         <v>3</v>
@@ -6628,13 +6641,13 @@
     </row>
     <row r="70" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>611</v>
+        <v>73</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>9</v>
@@ -6643,16 +6656,16 @@
         <v>452</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>612</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>360</v>
+        <v>74</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J70" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6671,21 +6684,24 @@
         <v>11</v>
       </c>
       <c r="O70" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P70" s="5">
         <v>3</v>
       </c>
+      <c r="Q70" s="5" t="s">
+        <v>494</v>
+      </c>
     </row>
     <row r="71" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>73</v>
+        <v>613</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>9</v>
@@ -6694,16 +6710,16 @@
         <v>453</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="J71" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6722,21 +6738,21 @@
         <v>11</v>
       </c>
       <c r="O71" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P71" s="5">
         <v>3</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>614</v>
@@ -6745,19 +6761,19 @@
         <v>9</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="J72" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6776,21 +6792,18 @@
         <v>11</v>
       </c>
       <c r="O72" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P72" s="5">
         <v>3</v>
       </c>
-      <c r="Q72" s="5" t="s">
-        <v>495</v>
-      </c>
     </row>
     <row r="73" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A73" s="5" t="s">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>102</v>
+        <v>251</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>615</v>
@@ -6805,13 +6818,13 @@
         <v>388</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>617</v>
+        <v>516</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>103</v>
+        <v>358</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="J73" s="5" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
@@ -6830,84 +6843,79 @@
         <v>11</v>
       </c>
       <c r="O73" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="P73" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A74" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>616</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G74" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="H74" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="I74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="J74" s="5" t="str">
+      <c r="Q73" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
       </c>
-      <c r="K74" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="O74" s="5" t="s">
-        <v>624</v>
-      </c>
-      <c r="P74" s="5">
-        <v>3</v>
-      </c>
-      <c r="Q74" s="5" t="s">
-        <v>405</v>
+      <c r="K74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P74" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="75" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="s">
-        <v>415</v>
+        <v>116</v>
       </c>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I75" s="1"/>
       <c r="J75" s="1" t="str">
@@ -6918,10 +6926,10 @@
         <v>49</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N75" s="1" t="s">
         <v>11</v>
@@ -6929,7 +6937,7 @@
       <c r="O75" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P75" s="7" t="s">
+      <c r="P75" s="1" t="s">
         <v>295</v>
       </c>
       <c r="Q75" s="1" t="s">
@@ -6938,22 +6946,22 @@
     </row>
     <row r="76" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="s">
-        <v>116</v>
+        <v>414</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" s="1" t="str">
@@ -6964,10 +6972,10 @@
         <v>49</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>11</v>
@@ -6979,27 +6987,27 @@
         <v>295</v>
       </c>
       <c r="Q76" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="77" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="s">
-        <v>415</v>
+        <v>9</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1" t="str">
@@ -7010,10 +7018,10 @@
         <v>49</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>11</v>
@@ -7025,15 +7033,15 @@
         <v>295</v>
       </c>
       <c r="Q77" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="s">
@@ -7041,11 +7049,11 @@
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" s="1" t="str">
@@ -7056,10 +7064,10 @@
         <v>49</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N78" s="1" t="s">
         <v>11</v>
@@ -7067,19 +7075,19 @@
       <c r="O78" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P78" s="1" t="s">
+      <c r="P78" s="7" t="s">
         <v>295</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="s">
@@ -7087,11 +7095,11 @@
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" s="1" t="str">
@@ -7102,10 +7110,10 @@
         <v>49</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>11</v>
@@ -7113,19 +7121,19 @@
       <c r="O79" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="P79" s="1" t="s">
         <v>295</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="s">
@@ -7133,11 +7141,11 @@
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" s="1" t="str">
@@ -7148,10 +7156,10 @@
         <v>49</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N80" s="1" t="s">
         <v>11</v>
@@ -7163,15 +7171,15 @@
         <v>295</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="s">
@@ -7179,11 +7187,11 @@
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1" t="str">
@@ -7194,10 +7202,10 @@
         <v>49</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>11</v>
@@ -7209,27 +7217,27 @@
         <v>295</v>
       </c>
       <c r="Q81" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>293</v>
+        <v>114</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>409</v>
+        <v>115</v>
       </c>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" s="1" t="str">
@@ -7240,10 +7248,10 @@
         <v>49</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>11</v>
@@ -7255,29 +7263,35 @@
         <v>295</v>
       </c>
       <c r="Q82" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="83" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="1"/>
+        <v>231</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>540</v>
+      </c>
       <c r="D83" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E83" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>473</v>
+      </c>
       <c r="F83" s="1" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I83" s="1"/>
+        <v>303</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="J83" s="1" t="str">
         <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
         <v>❌</v>
@@ -7286,72 +7300,76 @@
         <v>49</v>
       </c>
       <c r="L83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P83" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="M83" s="1" t="s">
+    </row>
+    <row r="84" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J84" s="3" t="str">
+        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
+        <v>❌</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="P84" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="1" t="s">
         <v>624</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q83" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="J84" s="1" t="str">
-        <f>IF(LEFT(Table1[[#This Row],[ IFC4.3 unit enumeration]],5)="IFCUn","✔️","❌")</f>
-        <v>❌</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q84" s="1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="85" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7361,19 +7379,21 @@
       <c r="B85" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C85" s="1"/>
+      <c r="C85" s="1" t="s">
+        <v>627</v>
+      </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I85" s="1" t="s">
         <v>235</v>
@@ -7394,14 +7414,14 @@
       <c r="N85" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P85" s="1" t="s">
-        <v>295</v>
+      <c r="O85" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P85" s="1">
+        <v>3</v>
       </c>
       <c r="Q85" s="1" t="s">
-        <v>297</v>
+        <v>624</v>
       </c>
     </row>
     <row r="86" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7411,19 +7431,21 @@
       <c r="B86" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C86" s="1"/>
+      <c r="C86" s="1" t="s">
+        <v>626</v>
+      </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I86" s="1" t="s">
         <v>238</v>
@@ -7444,14 +7466,14 @@
       <c r="N86" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="P86" s="1" t="s">
-        <v>295</v>
+      <c r="O86" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="P86" s="1">
+        <v>3</v>
       </c>
       <c r="Q86" s="1" t="s">
-        <v>297</v>
+        <v>624</v>
       </c>
     </row>
     <row r="87" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7466,14 +7488,14 @@
         <v>9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I87" s="1" t="s">
         <v>33</v>
@@ -7501,7 +7523,7 @@
         <v>295</v>
       </c>
       <c r="Q87" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7516,10 +7538,10 @@
         <v>9</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
@@ -7551,7 +7573,7 @@
         <v>295</v>
       </c>
       <c r="Q88" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="89" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7566,10 +7588,10 @@
         <v>116</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1" t="s">
@@ -7601,7 +7623,7 @@
         <v>295</v>
       </c>
       <c r="Q89" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="90" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7616,10 +7638,10 @@
         <v>9</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
@@ -7651,7 +7673,7 @@
         <v>295</v>
       </c>
       <c r="Q90" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7666,10 +7688,10 @@
         <v>9</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
@@ -7701,7 +7723,7 @@
         <v>295</v>
       </c>
       <c r="Q91" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="92" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7716,14 +7738,14 @@
         <v>9</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I92" s="1" t="s">
         <v>196</v>
@@ -7751,7 +7773,7 @@
         <v>295</v>
       </c>
       <c r="Q92" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="93" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -7766,10 +7788,10 @@
         <v>9</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
@@ -7801,7 +7823,7 @@
         <v>295</v>
       </c>
       <c r="Q93" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
